--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Locations!$A$1:$C$1</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Road Material'!$A$1:$C$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Storms!$A$2:$C$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Storms!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="11">
   <si>
     <t xml:space="preserve">Location No</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">Y Coordinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Center</t>
   </si>
   <si>
     <t xml:space="preserve">Radius</t>
@@ -97,7 +94,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,13 +104,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEBF7"/>
-        <bgColor rgb="FFDAE3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAE3F3"/>
-        <bgColor rgb="FFDEEBF7"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -171,7 +162,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,15 +179,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,7 +225,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -299,7 +286,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.82"/>
@@ -664,259 +651,251 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
+      <c r="A2" s="3" t="n">
+        <v>94.8567191775018</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>92.6094999471242</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>13.2719064621529</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
-        <v>94.8567191775018</v>
+        <v>2.49524334189855</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>92.6094999471242</v>
+        <v>156.802852073084</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>13.2719064621529</v>
+        <v>4.38594893021538</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>2.49524334189855</v>
+        <v>-35.5872279070031</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>156.802852073084</v>
+        <v>124.362970575867</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>4.38594893021538</v>
+        <v>16.0886845055917</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
-        <v>-35.5872279070031</v>
+        <v>51.6817438651862</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>124.362970575867</v>
+        <v>-23.0549272537495</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>16.0886845055917</v>
+        <v>17.1440682032956</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
-        <v>51.6817438651862</v>
+        <v>88.7479404587351</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-23.0549272537495</v>
+        <v>33.5603822076224</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>17.1440682032956</v>
+        <v>4.44891354902873</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
-        <v>88.7479404587351</v>
+        <v>-63.7178487201119</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>33.5603822076224</v>
+        <v>40.6721273331928</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>4.44891354902873</v>
+        <v>15.6882375783214</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
-        <v>-63.7178487201119</v>
+        <v>11.0897549706261</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>40.6721273331928</v>
+        <v>-62.1799091341462</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>15.6882375783214</v>
+        <v>16.6409342228404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>11.0897549706261</v>
+        <v>-31.0654911893074</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-62.1799091341462</v>
+        <v>-1.14872261341042</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>16.6409342228404</v>
+        <v>3.17011710839642</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>-31.0654911893074</v>
+        <v>-57.8100007827912</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-1.14872261341042</v>
+        <v>-58.9718538000468</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>3.17011710839642</v>
+        <v>10.8552405561818</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
-        <v>-57.8100007827912</v>
+        <v>47.5524665398504</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-58.9718538000468</v>
+        <v>6.87555533293624</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>10.8552405561818</v>
+        <v>12.7551791048842</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>47.5524665398504</v>
+        <v>72.136699120708</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>6.87555533293624</v>
+        <v>161.003707873179</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>12.7551791048842</v>
+        <v>8.777180260589</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
-        <v>72.136699120708</v>
+        <v>-137.01371633057</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>161.003707873179</v>
+        <v>-18.7034372232715</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>8.777180260589</v>
+        <v>12.7395307418608</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
-        <v>-137.01371633057</v>
+        <v>111.012753486938</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-18.7034372232715</v>
+        <v>-73.0761386776219</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>12.7395307418608</v>
+        <v>14.4428021962852</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
-        <v>111.012753486938</v>
+        <v>14.8839775424428</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-73.0761386776219</v>
+        <v>137.74385034702</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>14.4428021962852</v>
+        <v>11.6352897207477</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
-        <v>14.8839775424428</v>
+        <v>-23.6035644855455</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>137.74385034702</v>
+        <v>87.3068216507411</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>11.6352897207477</v>
+        <v>12.4787872306835</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
-        <v>-23.6035644855455</v>
+        <v>-158.848113102144</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>87.3068216507411</v>
+        <v>-52.5401652549943</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>12.4787872306835</v>
+        <v>7.17306005830649</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
-        <v>-158.848113102144</v>
+        <v>-25.721190952122</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-52.5401652549943</v>
+        <v>-73.6997846759805</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>7.17306005830649</v>
+        <v>15.5975463419972</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
-        <v>-25.721190952122</v>
+        <v>-6.9559770118292</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-73.6997846759805</v>
+        <v>141.089525544194</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>15.5975463419972</v>
+        <v>9.40252434358611</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
-        <v>-6.9559770118292</v>
+        <v>10.379903918934</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>141.089525544194</v>
+        <v>3.1370406268054</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>9.40252434358611</v>
+        <v>12.4743356752449</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
-        <v>10.379903918934</v>
+        <v>-43.6501148425536</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.1370406268054</v>
+        <v>18.5254701977038</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>12.4743356752449</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
-        <v>-43.6501148425536</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>18.5254701977038</v>
-      </c>
-      <c r="C22" s="3" t="n">
         <v>15.5020047228115</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A2:C2"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
+  <autoFilter ref="A1:C1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -935,37 +914,37 @@
   </sheetPr>
   <dimension ref="A1:C901"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1020,7 +999,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,7 +1076,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,7 +1087,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,7 +1098,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,7 +1109,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,7 +1131,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,7 +1142,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,7 +1153,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,7 +1164,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,7 +1175,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,7 +1186,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,7 +1197,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,7 +1208,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,7 +1219,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,7 +1230,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,7 +1241,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,7 +1252,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,7 +1263,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,7 +1362,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,7 +1395,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,7 +1406,7 @@
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,7 +1461,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1472,7 @@
         <v>19</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,7 +1483,7 @@
         <v>20</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,7 +1494,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,7 +1505,7 @@
         <v>22</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,7 +1516,7 @@
         <v>23</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1527,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,7 +1538,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,7 +1549,7 @@
         <v>26</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,7 +1571,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,7 +1582,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1614,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,7 +1659,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,7 +1681,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,7 +1714,7 @@
         <v>11</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,7 +1725,7 @@
         <v>12</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,7 +1747,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,7 +1769,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,7 +1780,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,7 +1791,7 @@
         <v>18</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,7 +1802,7 @@
         <v>19</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,7 +1813,7 @@
         <v>20</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +1824,7 @@
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,7 +1835,7 @@
         <v>22</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,7 +1846,7 @@
         <v>23</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,7 +1857,7 @@
         <v>24</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,7 +1868,7 @@
         <v>25</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,7 +1879,7 @@
         <v>26</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,7 +1890,7 @@
         <v>27</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,7 +1901,7 @@
         <v>28</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,7 +1912,7 @@
         <v>29</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,7 +1923,7 @@
         <v>30</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2010,7 +1989,7 @@
         <v>6</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2021,7 +2000,7 @@
         <v>7</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2022,7 @@
         <v>9</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,7 +2033,7 @@
         <v>10</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,7 +2044,7 @@
         <v>11</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2087,7 +2066,7 @@
         <v>13</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,7 +2088,7 @@
         <v>15</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,7 +2099,7 @@
         <v>16</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,7 +2110,7 @@
         <v>17</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,7 +2121,7 @@
         <v>18</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,7 +2132,7 @@
         <v>19</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,7 +2154,7 @@
         <v>21</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,7 +2165,7 @@
         <v>22</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,7 +2176,7 @@
         <v>23</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,7 +2187,7 @@
         <v>24</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,7 +2198,7 @@
         <v>25</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2230,7 +2209,7 @@
         <v>26</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,7 +2220,7 @@
         <v>27</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,7 +2231,7 @@
         <v>28</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,7 +2242,7 @@
         <v>29</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,7 +2253,7 @@
         <v>30</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,7 +2308,7 @@
         <v>5</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2319,7 @@
         <v>6</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,7 +2330,7 @@
         <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,7 +2341,7 @@
         <v>8</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,7 +2352,7 @@
         <v>9</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,7 +2374,7 @@
         <v>11</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,7 +2385,7 @@
         <v>12</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2417,7 +2396,7 @@
         <v>13</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2428,7 +2407,7 @@
         <v>14</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,7 +2418,7 @@
         <v>15</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,7 +2429,7 @@
         <v>16</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2461,7 +2440,7 @@
         <v>17</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,7 +2451,7 @@
         <v>18</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2483,7 +2462,7 @@
         <v>19</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,7 +2473,7 @@
         <v>20</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,7 +2484,7 @@
         <v>21</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,7 +2495,7 @@
         <v>22</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,7 +2506,7 @@
         <v>23</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,7 +2517,7 @@
         <v>24</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,7 +2528,7 @@
         <v>25</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,7 +2539,7 @@
         <v>26</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,7 +2550,7 @@
         <v>27</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,7 +2561,7 @@
         <v>28</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,7 +2572,7 @@
         <v>29</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,7 +2583,7 @@
         <v>30</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,7 +2638,7 @@
         <v>5</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2670,7 +2649,7 @@
         <v>6</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2681,7 +2660,7 @@
         <v>7</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,7 +2682,7 @@
         <v>9</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,7 +2693,7 @@
         <v>10</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,7 +2704,7 @@
         <v>11</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2736,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2747,7 +2726,7 @@
         <v>13</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,7 +2737,7 @@
         <v>14</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,7 +2748,7 @@
         <v>15</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,7 +2759,7 @@
         <v>16</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2791,7 +2770,7 @@
         <v>17</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,7 +2781,7 @@
         <v>18</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2813,7 +2792,7 @@
         <v>19</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,7 +2803,7 @@
         <v>20</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,7 +2814,7 @@
         <v>21</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,7 +2825,7 @@
         <v>22</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,7 +2836,7 @@
         <v>23</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,7 +2847,7 @@
         <v>24</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2879,7 +2858,7 @@
         <v>25</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,7 +2869,7 @@
         <v>26</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2901,7 +2880,7 @@
         <v>27</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,7 +2891,7 @@
         <v>28</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,7 +2902,7 @@
         <v>29</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,7 +2913,7 @@
         <v>30</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,7 +2946,7 @@
         <v>3</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,7 +2957,7 @@
         <v>4</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,7 +2968,7 @@
         <v>5</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +2979,7 @@
         <v>6</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,7 +2990,7 @@
         <v>7</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3033,7 +3012,7 @@
         <v>9</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3044,7 +3023,7 @@
         <v>10</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3055,7 +3034,7 @@
         <v>11</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,7 +3056,7 @@
         <v>13</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,7 +3067,7 @@
         <v>14</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3099,7 +3078,7 @@
         <v>15</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,7 +3089,7 @@
         <v>16</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,7 +3100,7 @@
         <v>17</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,7 +3111,7 @@
         <v>18</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,7 +3122,7 @@
         <v>19</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,7 +3144,7 @@
         <v>21</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,7 +3155,7 @@
         <v>22</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,7 +3166,7 @@
         <v>23</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,7 +3177,7 @@
         <v>24</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,7 +3188,7 @@
         <v>25</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3220,7 +3199,7 @@
         <v>26</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,7 +3210,7 @@
         <v>27</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3242,7 +3221,7 @@
         <v>28</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,7 +3232,7 @@
         <v>29</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,7 +3243,7 @@
         <v>30</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,7 +3276,7 @@
         <v>3</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,7 +3287,7 @@
         <v>4</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3298,7 @@
         <v>5</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,7 +3309,7 @@
         <v>6</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,7 +3320,7 @@
         <v>7</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,7 +3331,7 @@
         <v>8</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,7 +3342,7 @@
         <v>9</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,7 +3353,7 @@
         <v>10</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,7 +3364,7 @@
         <v>11</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,7 +3375,7 @@
         <v>12</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,7 +3386,7 @@
         <v>13</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,7 +3397,7 @@
         <v>14</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,7 +3408,7 @@
         <v>15</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3451,7 +3430,7 @@
         <v>17</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,7 +3441,7 @@
         <v>18</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,7 +3452,7 @@
         <v>19</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,7 +3463,7 @@
         <v>20</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,7 +3474,7 @@
         <v>21</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,7 +3485,7 @@
         <v>22</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,7 +3496,7 @@
         <v>23</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,7 +3507,7 @@
         <v>24</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3539,7 +3518,7 @@
         <v>25</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,7 +3529,7 @@
         <v>26</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,7 +3540,7 @@
         <v>27</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,7 +3551,7 @@
         <v>28</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,7 +3562,7 @@
         <v>29</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,7 +3573,7 @@
         <v>30</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,7 +3606,7 @@
         <v>3</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,7 +3617,7 @@
         <v>4</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3660,7 +3639,7 @@
         <v>6</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3671,7 +3650,7 @@
         <v>7</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3682,7 +3661,7 @@
         <v>8</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,7 +3672,7 @@
         <v>9</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,7 +3683,7 @@
         <v>10</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,7 +3694,7 @@
         <v>11</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,7 +3705,7 @@
         <v>12</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,7 +3716,7 @@
         <v>13</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,7 +3727,7 @@
         <v>14</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,7 +3738,7 @@
         <v>15</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3770,7 +3749,7 @@
         <v>16</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,7 +3760,7 @@
         <v>17</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3792,7 +3771,7 @@
         <v>18</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,7 +3782,7 @@
         <v>19</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,7 +3793,7 @@
         <v>20</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,7 +3804,7 @@
         <v>21</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3836,7 +3815,7 @@
         <v>22</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,7 +3826,7 @@
         <v>23</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,7 +3837,7 @@
         <v>24</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3869,7 +3848,7 @@
         <v>25</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,7 +3859,7 @@
         <v>26</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,7 +3870,7 @@
         <v>27</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3902,7 +3881,7 @@
         <v>28</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3913,7 +3892,7 @@
         <v>29</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,7 +3903,7 @@
         <v>30</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,7 +3936,7 @@
         <v>3</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,7 +3947,7 @@
         <v>4</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,7 +3958,7 @@
         <v>5</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,7 +3969,7 @@
         <v>6</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,7 +3980,7 @@
         <v>7</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4012,7 +3991,7 @@
         <v>8</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4023,7 +4002,7 @@
         <v>9</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4034,7 +4013,7 @@
         <v>10</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4045,7 +4024,7 @@
         <v>11</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4056,7 +4035,7 @@
         <v>12</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,7 +4046,7 @@
         <v>13</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4078,7 +4057,7 @@
         <v>14</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,7 +4068,7 @@
         <v>15</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,7 +4079,7 @@
         <v>16</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4111,7 +4090,7 @@
         <v>17</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4122,7 +4101,7 @@
         <v>18</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4133,7 +4112,7 @@
         <v>19</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4155,7 +4134,7 @@
         <v>21</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,7 +4145,7 @@
         <v>22</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,7 +4156,7 @@
         <v>23</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4188,7 +4167,7 @@
         <v>24</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4199,7 +4178,7 @@
         <v>25</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,7 +4189,7 @@
         <v>26</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4221,7 +4200,7 @@
         <v>27</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,7 +4211,7 @@
         <v>28</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,7 +4222,7 @@
         <v>29</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,7 +4233,7 @@
         <v>30</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4265,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4276,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,7 +4266,7 @@
         <v>3</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,7 +4277,7 @@
         <v>4</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,7 +4288,7 @@
         <v>5</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +4310,7 @@
         <v>7</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4342,7 +4321,7 @@
         <v>8</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,7 +4332,7 @@
         <v>9</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,7 +4343,7 @@
         <v>10</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4375,7 +4354,7 @@
         <v>11</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,7 +4365,7 @@
         <v>12</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,7 +4376,7 @@
         <v>13</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,7 +4387,7 @@
         <v>14</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,7 +4398,7 @@
         <v>15</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,7 +4409,7 @@
         <v>16</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,7 +4420,7 @@
         <v>17</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4452,7 +4431,7 @@
         <v>18</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,7 +4442,7 @@
         <v>19</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,7 +4453,7 @@
         <v>20</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,7 +4464,7 @@
         <v>21</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,7 +4475,7 @@
         <v>22</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,7 +4486,7 @@
         <v>23</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4497,7 @@
         <v>24</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,7 +4508,7 @@
         <v>25</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,7 +4519,7 @@
         <v>26</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,7 +4530,7 @@
         <v>27</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,7 +4541,7 @@
         <v>28</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4573,7 +4552,7 @@
         <v>29</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,7 +4563,7 @@
         <v>30</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,7 +4596,7 @@
         <v>3</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4628,7 +4607,7 @@
         <v>4</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,7 +4618,7 @@
         <v>5</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,7 +4629,7 @@
         <v>6</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,7 +4640,7 @@
         <v>7</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +4651,7 @@
         <v>8</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,7 +4662,7 @@
         <v>9</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,7 +4673,7 @@
         <v>10</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4705,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,7 +4695,7 @@
         <v>12</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,7 +4706,7 @@
         <v>13</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,7 +4717,7 @@
         <v>14</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,7 +4728,7 @@
         <v>15</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,7 +4739,7 @@
         <v>16</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4771,7 +4750,7 @@
         <v>17</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4782,7 +4761,7 @@
         <v>18</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4793,7 +4772,7 @@
         <v>19</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4804,7 +4783,7 @@
         <v>20</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,7 +4794,7 @@
         <v>21</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4826,7 +4805,7 @@
         <v>22</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,7 +4816,7 @@
         <v>23</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,7 +4827,7 @@
         <v>24</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,7 +4838,7 @@
         <v>25</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,7 +4849,7 @@
         <v>26</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,7 +4860,7 @@
         <v>27</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4892,7 +4871,7 @@
         <v>28</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4903,7 +4882,7 @@
         <v>29</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,7 +4893,7 @@
         <v>30</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4925,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4936,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,7 +4937,7 @@
         <v>4</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4969,7 +4948,7 @@
         <v>5</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4980,7 +4959,7 @@
         <v>6</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4991,7 +4970,7 @@
         <v>7</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5002,7 +4981,7 @@
         <v>8</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,7 +4992,7 @@
         <v>9</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,7 +5003,7 @@
         <v>10</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,7 +5014,7 @@
         <v>11</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5046,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5057,7 +5036,7 @@
         <v>13</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,7 +5047,7 @@
         <v>14</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5079,7 +5058,7 @@
         <v>15</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5090,7 +5069,7 @@
         <v>16</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,7 +5080,7 @@
         <v>17</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,7 +5091,7 @@
         <v>18</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5123,7 +5102,7 @@
         <v>19</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,7 +5113,7 @@
         <v>20</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5145,7 +5124,7 @@
         <v>21</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5156,7 +5135,7 @@
         <v>22</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5167,7 +5146,7 @@
         <v>23</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,7 +5157,7 @@
         <v>24</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,7 +5168,7 @@
         <v>25</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5200,7 +5179,7 @@
         <v>26</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,7 +5190,7 @@
         <v>27</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,7 +5201,7 @@
         <v>28</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,7 +5212,7 @@
         <v>29</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5244,7 +5223,7 @@
         <v>30</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5255,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5266,7 +5245,7 @@
         <v>2</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,7 +5256,7 @@
         <v>3</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,7 +5267,7 @@
         <v>4</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,7 +5278,7 @@
         <v>5</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5310,7 +5289,7 @@
         <v>6</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,7 +5300,7 @@
         <v>7</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,7 +5311,7 @@
         <v>8</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,7 +5322,7 @@
         <v>9</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5354,7 +5333,7 @@
         <v>10</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5365,7 +5344,7 @@
         <v>11</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,7 +5355,7 @@
         <v>12</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5387,7 +5366,7 @@
         <v>13</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5398,7 +5377,7 @@
         <v>14</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5409,7 +5388,7 @@
         <v>15</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5420,7 +5399,7 @@
         <v>16</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5431,7 +5410,7 @@
         <v>17</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5442,7 +5421,7 @@
         <v>18</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5453,7 +5432,7 @@
         <v>19</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,7 +5443,7 @@
         <v>20</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5486,7 +5465,7 @@
         <v>22</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5497,7 +5476,7 @@
         <v>23</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,7 +5487,7 @@
         <v>24</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5519,7 +5498,7 @@
         <v>25</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5530,7 +5509,7 @@
         <v>26</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,7 +5520,7 @@
         <v>27</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,7 +5531,7 @@
         <v>28</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,7 +5542,7 @@
         <v>29</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5574,7 +5553,7 @@
         <v>30</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5596,7 +5575,7 @@
         <v>2</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5607,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5618,7 +5597,7 @@
         <v>4</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5629,7 +5608,7 @@
         <v>5</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,7 +5619,7 @@
         <v>6</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,7 +5630,7 @@
         <v>7</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5662,7 +5641,7 @@
         <v>8</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5673,7 +5652,7 @@
         <v>9</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5684,7 +5663,7 @@
         <v>10</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,7 +5674,7 @@
         <v>11</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5706,7 +5685,7 @@
         <v>12</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5717,7 +5696,7 @@
         <v>13</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,7 +5707,7 @@
         <v>14</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5739,7 +5718,7 @@
         <v>15</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5750,7 +5729,7 @@
         <v>16</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5761,7 +5740,7 @@
         <v>17</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5772,7 +5751,7 @@
         <v>18</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5783,7 +5762,7 @@
         <v>19</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5794,7 +5773,7 @@
         <v>20</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,7 +5784,7 @@
         <v>21</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5816,7 +5795,7 @@
         <v>22</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5827,7 +5806,7 @@
         <v>23</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,7 +5817,7 @@
         <v>24</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5849,7 +5828,7 @@
         <v>25</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5860,7 +5839,7 @@
         <v>26</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5871,7 +5850,7 @@
         <v>27</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5882,7 +5861,7 @@
         <v>28</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5893,7 +5872,7 @@
         <v>29</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,7 +5883,7 @@
         <v>30</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5915,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5926,7 +5905,7 @@
         <v>2</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5937,7 +5916,7 @@
         <v>3</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5948,7 +5927,7 @@
         <v>4</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5959,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5970,7 +5949,7 @@
         <v>6</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5981,7 +5960,7 @@
         <v>7</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5992,7 +5971,7 @@
         <v>8</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6003,7 +5982,7 @@
         <v>9</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6014,7 +5993,7 @@
         <v>10</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6025,7 +6004,7 @@
         <v>11</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6036,7 +6015,7 @@
         <v>12</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6047,7 +6026,7 @@
         <v>13</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6058,7 +6037,7 @@
         <v>14</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6069,7 +6048,7 @@
         <v>15</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,7 +6059,7 @@
         <v>16</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6091,7 +6070,7 @@
         <v>17</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6102,7 +6081,7 @@
         <v>18</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6113,7 +6092,7 @@
         <v>19</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6124,7 +6103,7 @@
         <v>20</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6135,7 +6114,7 @@
         <v>21</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6146,7 +6125,7 @@
         <v>22</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6157,7 +6136,7 @@
         <v>23</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6168,7 +6147,7 @@
         <v>24</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6179,7 +6158,7 @@
         <v>25</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6190,7 +6169,7 @@
         <v>26</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6201,7 +6180,7 @@
         <v>27</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6212,7 +6191,7 @@
         <v>28</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6223,7 +6202,7 @@
         <v>29</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6234,7 +6213,7 @@
         <v>30</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6245,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6267,7 +6246,7 @@
         <v>3</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6278,7 +6257,7 @@
         <v>4</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6289,7 +6268,7 @@
         <v>5</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6300,7 +6279,7 @@
         <v>6</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6311,7 +6290,7 @@
         <v>7</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6322,7 +6301,7 @@
         <v>8</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6333,7 +6312,7 @@
         <v>9</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6344,7 +6323,7 @@
         <v>10</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6355,7 +6334,7 @@
         <v>11</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6366,7 +6345,7 @@
         <v>12</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6377,7 +6356,7 @@
         <v>13</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6388,7 +6367,7 @@
         <v>14</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6399,7 +6378,7 @@
         <v>15</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6410,7 +6389,7 @@
         <v>16</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6421,7 +6400,7 @@
         <v>17</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6432,7 +6411,7 @@
         <v>18</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6443,7 +6422,7 @@
         <v>19</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6454,7 +6433,7 @@
         <v>20</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6465,7 +6444,7 @@
         <v>21</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,7 +6455,7 @@
         <v>22</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6487,7 +6466,7 @@
         <v>23</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6498,7 +6477,7 @@
         <v>24</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6509,7 +6488,7 @@
         <v>25</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6520,7 +6499,7 @@
         <v>26</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6531,7 +6510,7 @@
         <v>27</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6542,7 +6521,7 @@
         <v>28</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6553,7 +6532,7 @@
         <v>29</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6564,7 +6543,7 @@
         <v>30</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6575,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6586,7 +6565,7 @@
         <v>2</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6597,7 +6576,7 @@
         <v>3</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6608,7 +6587,7 @@
         <v>4</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6619,7 +6598,7 @@
         <v>5</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6630,7 +6609,7 @@
         <v>6</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6641,7 +6620,7 @@
         <v>7</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6652,7 +6631,7 @@
         <v>8</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6663,7 +6642,7 @@
         <v>9</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6674,7 +6653,7 @@
         <v>10</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6685,7 +6664,7 @@
         <v>11</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,7 +6675,7 @@
         <v>12</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,7 +6686,7 @@
         <v>13</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6718,7 +6697,7 @@
         <v>14</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,7 +6708,7 @@
         <v>15</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6740,7 +6719,7 @@
         <v>16</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,7 +6730,7 @@
         <v>17</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6762,7 +6741,7 @@
         <v>18</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6773,7 +6752,7 @@
         <v>19</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6784,7 +6763,7 @@
         <v>20</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6795,7 +6774,7 @@
         <v>21</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6806,7 +6785,7 @@
         <v>22</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,7 +6796,7 @@
         <v>23</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,7 +6807,7 @@
         <v>24</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6839,7 +6818,7 @@
         <v>25</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6850,7 +6829,7 @@
         <v>26</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6861,7 +6840,7 @@
         <v>27</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6872,7 +6851,7 @@
         <v>28</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6883,7 +6862,7 @@
         <v>29</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6894,7 +6873,7 @@
         <v>30</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6905,7 +6884,7 @@
         <v>1</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6916,7 +6895,7 @@
         <v>2</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6927,7 +6906,7 @@
         <v>3</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6938,7 +6917,7 @@
         <v>4</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6949,7 +6928,7 @@
         <v>5</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6960,7 +6939,7 @@
         <v>6</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6971,7 +6950,7 @@
         <v>7</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6982,7 +6961,7 @@
         <v>8</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6993,7 +6972,7 @@
         <v>9</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7004,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7015,7 +6994,7 @@
         <v>11</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7026,7 +7005,7 @@
         <v>12</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7037,7 +7016,7 @@
         <v>13</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7048,7 +7027,7 @@
         <v>14</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7059,7 +7038,7 @@
         <v>15</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7070,7 +7049,7 @@
         <v>16</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7081,7 +7060,7 @@
         <v>17</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7092,7 +7071,7 @@
         <v>18</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7103,7 +7082,7 @@
         <v>19</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7114,7 +7093,7 @@
         <v>20</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7125,7 +7104,7 @@
         <v>21</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7136,7 +7115,7 @@
         <v>22</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,7 +7126,7 @@
         <v>23</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,7 +7137,7 @@
         <v>24</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7169,7 +7148,7 @@
         <v>25</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7180,7 +7159,7 @@
         <v>26</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7191,7 +7170,7 @@
         <v>27</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7202,7 +7181,7 @@
         <v>28</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7213,7 +7192,7 @@
         <v>29</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7224,7 +7203,7 @@
         <v>30</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7235,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,7 +7225,7 @@
         <v>2</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7257,7 +7236,7 @@
         <v>3</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7268,7 +7247,7 @@
         <v>4</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7279,7 +7258,7 @@
         <v>5</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7290,7 +7269,7 @@
         <v>6</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7301,7 +7280,7 @@
         <v>7</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7312,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7323,7 +7302,7 @@
         <v>9</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7334,7 +7313,7 @@
         <v>10</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,7 +7324,7 @@
         <v>11</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7356,7 +7335,7 @@
         <v>12</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7367,7 +7346,7 @@
         <v>13</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7378,7 +7357,7 @@
         <v>14</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7389,7 +7368,7 @@
         <v>15</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7400,7 +7379,7 @@
         <v>16</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,7 +7390,7 @@
         <v>17</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7422,7 +7401,7 @@
         <v>18</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7433,7 +7412,7 @@
         <v>19</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7444,7 +7423,7 @@
         <v>20</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,7 +7434,7 @@
         <v>21</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7466,7 +7445,7 @@
         <v>22</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7477,7 +7456,7 @@
         <v>23</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7488,7 +7467,7 @@
         <v>24</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7499,7 +7478,7 @@
         <v>25</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7510,7 +7489,7 @@
         <v>26</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,7 +7500,7 @@
         <v>27</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7532,7 +7511,7 @@
         <v>28</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7543,7 +7522,7 @@
         <v>29</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7554,7 +7533,7 @@
         <v>30</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7576,7 +7555,7 @@
         <v>2</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7587,7 +7566,7 @@
         <v>3</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7598,7 +7577,7 @@
         <v>4</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7609,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7620,7 +7599,7 @@
         <v>6</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7631,7 +7610,7 @@
         <v>7</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7642,7 +7621,7 @@
         <v>8</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7653,7 +7632,7 @@
         <v>9</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7664,7 +7643,7 @@
         <v>10</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7675,7 +7654,7 @@
         <v>11</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,7 +7665,7 @@
         <v>12</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7697,7 +7676,7 @@
         <v>13</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7708,7 +7687,7 @@
         <v>14</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7719,7 +7698,7 @@
         <v>15</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7730,7 +7709,7 @@
         <v>16</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7741,7 +7720,7 @@
         <v>17</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7752,7 +7731,7 @@
         <v>18</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7763,7 +7742,7 @@
         <v>19</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7774,7 +7753,7 @@
         <v>20</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,7 +7764,7 @@
         <v>21</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7796,7 +7775,7 @@
         <v>22</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7807,7 +7786,7 @@
         <v>23</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7818,7 +7797,7 @@
         <v>24</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7829,7 +7808,7 @@
         <v>25</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7840,7 +7819,7 @@
         <v>26</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7851,7 +7830,7 @@
         <v>27</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7862,7 +7841,7 @@
         <v>28</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7873,7 +7852,7 @@
         <v>29</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7884,7 +7863,7 @@
         <v>30</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7895,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7906,7 +7885,7 @@
         <v>2</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7917,7 +7896,7 @@
         <v>3</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7928,7 +7907,7 @@
         <v>4</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7939,7 +7918,7 @@
         <v>5</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7950,7 +7929,7 @@
         <v>6</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7961,7 +7940,7 @@
         <v>7</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7972,7 +7951,7 @@
         <v>8</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7983,7 +7962,7 @@
         <v>9</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7994,7 +7973,7 @@
         <v>10</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8005,7 +7984,7 @@
         <v>11</v>
       </c>
       <c r="C642" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8016,7 +7995,7 @@
         <v>12</v>
       </c>
       <c r="C643" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8027,7 +8006,7 @@
         <v>13</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8038,7 +8017,7 @@
         <v>14</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8049,7 +8028,7 @@
         <v>15</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8060,7 +8039,7 @@
         <v>16</v>
       </c>
       <c r="C647" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8071,7 +8050,7 @@
         <v>17</v>
       </c>
       <c r="C648" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8082,7 +8061,7 @@
         <v>18</v>
       </c>
       <c r="C649" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8093,7 +8072,7 @@
         <v>19</v>
       </c>
       <c r="C650" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8104,7 +8083,7 @@
         <v>20</v>
       </c>
       <c r="C651" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8115,7 +8094,7 @@
         <v>21</v>
       </c>
       <c r="C652" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8126,7 +8105,7 @@
         <v>22</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8137,7 +8116,7 @@
         <v>23</v>
       </c>
       <c r="C654" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8148,7 +8127,7 @@
         <v>24</v>
       </c>
       <c r="C655" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8159,7 +8138,7 @@
         <v>25</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8170,7 +8149,7 @@
         <v>26</v>
       </c>
       <c r="C657" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8181,7 +8160,7 @@
         <v>27</v>
       </c>
       <c r="C658" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8192,7 +8171,7 @@
         <v>28</v>
       </c>
       <c r="C659" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8203,7 +8182,7 @@
         <v>29</v>
       </c>
       <c r="C660" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8214,7 +8193,7 @@
         <v>30</v>
       </c>
       <c r="C661" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8225,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8236,7 +8215,7 @@
         <v>2</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8247,7 +8226,7 @@
         <v>3</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8258,7 +8237,7 @@
         <v>4</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8269,7 +8248,7 @@
         <v>5</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8280,7 +8259,7 @@
         <v>6</v>
       </c>
       <c r="C667" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8291,7 +8270,7 @@
         <v>7</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8302,7 +8281,7 @@
         <v>8</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8313,7 +8292,7 @@
         <v>9</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8324,7 +8303,7 @@
         <v>10</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8335,7 +8314,7 @@
         <v>11</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8346,7 +8325,7 @@
         <v>12</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,7 +8336,7 @@
         <v>13</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8368,7 +8347,7 @@
         <v>14</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8379,7 +8358,7 @@
         <v>15</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8390,7 +8369,7 @@
         <v>16</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8401,7 +8380,7 @@
         <v>17</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8412,7 +8391,7 @@
         <v>18</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8423,7 +8402,7 @@
         <v>19</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8434,7 +8413,7 @@
         <v>20</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8445,7 +8424,7 @@
         <v>21</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8456,7 +8435,7 @@
         <v>22</v>
       </c>
       <c r="C683" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8467,7 +8446,7 @@
         <v>23</v>
       </c>
       <c r="C684" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8478,7 +8457,7 @@
         <v>24</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8489,7 +8468,7 @@
         <v>25</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8500,7 +8479,7 @@
         <v>26</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8511,7 +8490,7 @@
         <v>27</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8522,7 +8501,7 @@
         <v>28</v>
       </c>
       <c r="C689" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8533,7 +8512,7 @@
         <v>29</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8544,7 +8523,7 @@
         <v>30</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8555,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8566,7 +8545,7 @@
         <v>2</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8577,7 +8556,7 @@
         <v>3</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8588,7 +8567,7 @@
         <v>4</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8599,7 +8578,7 @@
         <v>5</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8610,7 +8589,7 @@
         <v>6</v>
       </c>
       <c r="C697" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8621,7 +8600,7 @@
         <v>7</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8632,7 +8611,7 @@
         <v>8</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8643,7 +8622,7 @@
         <v>9</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8654,7 +8633,7 @@
         <v>10</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8665,7 +8644,7 @@
         <v>11</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8676,7 +8655,7 @@
         <v>12</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8687,7 +8666,7 @@
         <v>13</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8698,7 +8677,7 @@
         <v>14</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8709,7 +8688,7 @@
         <v>15</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8720,7 +8699,7 @@
         <v>16</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8731,7 +8710,7 @@
         <v>17</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8742,7 +8721,7 @@
         <v>18</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8753,7 +8732,7 @@
         <v>19</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8764,7 +8743,7 @@
         <v>20</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8775,7 +8754,7 @@
         <v>21</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8786,7 +8765,7 @@
         <v>22</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8797,7 +8776,7 @@
         <v>23</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8808,7 +8787,7 @@
         <v>24</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8819,7 +8798,7 @@
         <v>25</v>
       </c>
       <c r="C716" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8830,7 +8809,7 @@
         <v>26</v>
       </c>
       <c r="C717" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8841,7 +8820,7 @@
         <v>27</v>
       </c>
       <c r="C718" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8852,7 +8831,7 @@
         <v>28</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8863,7 +8842,7 @@
         <v>29</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8874,7 +8853,7 @@
         <v>30</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8885,7 +8864,7 @@
         <v>1</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8896,7 +8875,7 @@
         <v>2</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8907,7 +8886,7 @@
         <v>3</v>
       </c>
       <c r="C724" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8918,7 +8897,7 @@
         <v>4</v>
       </c>
       <c r="C725" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8929,7 +8908,7 @@
         <v>5</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8940,7 +8919,7 @@
         <v>6</v>
       </c>
       <c r="C727" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8951,7 +8930,7 @@
         <v>7</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8962,7 +8941,7 @@
         <v>8</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8973,7 +8952,7 @@
         <v>9</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8984,7 +8963,7 @@
         <v>10</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8995,7 +8974,7 @@
         <v>11</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9006,7 +8985,7 @@
         <v>12</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9017,7 +8996,7 @@
         <v>13</v>
       </c>
       <c r="C734" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9028,7 +9007,7 @@
         <v>14</v>
       </c>
       <c r="C735" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,7 +9018,7 @@
         <v>15</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9050,7 +9029,7 @@
         <v>16</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9061,7 +9040,7 @@
         <v>17</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9072,7 +9051,7 @@
         <v>18</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9083,7 +9062,7 @@
         <v>19</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9094,7 +9073,7 @@
         <v>20</v>
       </c>
       <c r="C741" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9105,7 +9084,7 @@
         <v>21</v>
       </c>
       <c r="C742" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9116,7 +9095,7 @@
         <v>22</v>
       </c>
       <c r="C743" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9127,7 +9106,7 @@
         <v>23</v>
       </c>
       <c r="C744" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9138,7 +9117,7 @@
         <v>24</v>
       </c>
       <c r="C745" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9149,7 +9128,7 @@
         <v>25</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9160,7 +9139,7 @@
         <v>26</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9171,7 +9150,7 @@
         <v>27</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9182,7 +9161,7 @@
         <v>28</v>
       </c>
       <c r="C749" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9193,7 +9172,7 @@
         <v>29</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9204,7 +9183,7 @@
         <v>30</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9215,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9226,7 +9205,7 @@
         <v>2</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9237,7 +9216,7 @@
         <v>3</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9248,7 +9227,7 @@
         <v>4</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9259,7 +9238,7 @@
         <v>5</v>
       </c>
       <c r="C756" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9270,7 +9249,7 @@
         <v>6</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9281,7 +9260,7 @@
         <v>7</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9292,7 +9271,7 @@
         <v>8</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,7 +9282,7 @@
         <v>9</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9314,7 +9293,7 @@
         <v>10</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9325,7 +9304,7 @@
         <v>11</v>
       </c>
       <c r="C762" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9336,7 +9315,7 @@
         <v>12</v>
       </c>
       <c r="C763" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9347,7 +9326,7 @@
         <v>13</v>
       </c>
       <c r="C764" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9358,7 +9337,7 @@
         <v>14</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9369,7 +9348,7 @@
         <v>15</v>
       </c>
       <c r="C766" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9380,7 +9359,7 @@
         <v>16</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9391,7 +9370,7 @@
         <v>17</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9402,7 +9381,7 @@
         <v>18</v>
       </c>
       <c r="C769" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9413,7 +9392,7 @@
         <v>19</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9424,7 +9403,7 @@
         <v>20</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9435,7 +9414,7 @@
         <v>21</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9446,7 +9425,7 @@
         <v>22</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9457,7 +9436,7 @@
         <v>23</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9468,7 +9447,7 @@
         <v>24</v>
       </c>
       <c r="C775" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9479,7 +9458,7 @@
         <v>25</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9490,7 +9469,7 @@
         <v>26</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9501,7 +9480,7 @@
         <v>27</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9512,7 +9491,7 @@
         <v>28</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9523,7 +9502,7 @@
         <v>29</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9534,7 +9513,7 @@
         <v>30</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9545,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9556,7 +9535,7 @@
         <v>2</v>
       </c>
       <c r="C783" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9567,7 +9546,7 @@
         <v>3</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9578,7 +9557,7 @@
         <v>4</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9589,7 +9568,7 @@
         <v>5</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9600,7 +9579,7 @@
         <v>6</v>
       </c>
       <c r="C787" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9611,7 +9590,7 @@
         <v>7</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9622,7 +9601,7 @@
         <v>8</v>
       </c>
       <c r="C789" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9633,7 +9612,7 @@
         <v>9</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9644,7 +9623,7 @@
         <v>10</v>
       </c>
       <c r="C791" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9655,7 +9634,7 @@
         <v>11</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9666,7 +9645,7 @@
         <v>12</v>
       </c>
       <c r="C793" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9677,7 +9656,7 @@
         <v>13</v>
       </c>
       <c r="C794" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9688,7 +9667,7 @@
         <v>14</v>
       </c>
       <c r="C795" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9699,7 +9678,7 @@
         <v>15</v>
       </c>
       <c r="C796" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9710,7 +9689,7 @@
         <v>16</v>
       </c>
       <c r="C797" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9721,7 +9700,7 @@
         <v>17</v>
       </c>
       <c r="C798" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9732,7 +9711,7 @@
         <v>18</v>
       </c>
       <c r="C799" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9743,7 +9722,7 @@
         <v>19</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9754,7 +9733,7 @@
         <v>20</v>
       </c>
       <c r="C801" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9765,7 +9744,7 @@
         <v>21</v>
       </c>
       <c r="C802" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9776,7 +9755,7 @@
         <v>22</v>
       </c>
       <c r="C803" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9787,7 +9766,7 @@
         <v>23</v>
       </c>
       <c r="C804" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9798,7 +9777,7 @@
         <v>24</v>
       </c>
       <c r="C805" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9809,7 +9788,7 @@
         <v>25</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9820,7 +9799,7 @@
         <v>26</v>
       </c>
       <c r="C807" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9831,7 +9810,7 @@
         <v>27</v>
       </c>
       <c r="C808" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9842,7 +9821,7 @@
         <v>28</v>
       </c>
       <c r="C809" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9853,7 +9832,7 @@
         <v>29</v>
       </c>
       <c r="C810" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9864,7 +9843,7 @@
         <v>30</v>
       </c>
       <c r="C811" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9875,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="C812" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9886,7 +9865,7 @@
         <v>2</v>
       </c>
       <c r="C813" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9897,7 +9876,7 @@
         <v>3</v>
       </c>
       <c r="C814" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9908,7 +9887,7 @@
         <v>4</v>
       </c>
       <c r="C815" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9919,7 +9898,7 @@
         <v>5</v>
       </c>
       <c r="C816" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9930,7 +9909,7 @@
         <v>6</v>
       </c>
       <c r="C817" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9941,7 +9920,7 @@
         <v>7</v>
       </c>
       <c r="C818" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9952,7 +9931,7 @@
         <v>8</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9963,7 +9942,7 @@
         <v>9</v>
       </c>
       <c r="C820" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9974,7 +9953,7 @@
         <v>10</v>
       </c>
       <c r="C821" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9985,7 +9964,7 @@
         <v>11</v>
       </c>
       <c r="C822" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9996,7 +9975,7 @@
         <v>12</v>
       </c>
       <c r="C823" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10007,7 +9986,7 @@
         <v>13</v>
       </c>
       <c r="C824" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10018,7 +9997,7 @@
         <v>14</v>
       </c>
       <c r="C825" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10029,7 +10008,7 @@
         <v>15</v>
       </c>
       <c r="C826" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10040,7 +10019,7 @@
         <v>16</v>
       </c>
       <c r="C827" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10051,7 +10030,7 @@
         <v>17</v>
       </c>
       <c r="C828" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10062,7 +10041,7 @@
         <v>18</v>
       </c>
       <c r="C829" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10073,7 +10052,7 @@
         <v>19</v>
       </c>
       <c r="C830" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10084,7 +10063,7 @@
         <v>20</v>
       </c>
       <c r="C831" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10095,7 +10074,7 @@
         <v>21</v>
       </c>
       <c r="C832" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10106,7 +10085,7 @@
         <v>22</v>
       </c>
       <c r="C833" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10117,7 +10096,7 @@
         <v>23</v>
       </c>
       <c r="C834" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10128,7 +10107,7 @@
         <v>24</v>
       </c>
       <c r="C835" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10139,7 +10118,7 @@
         <v>25</v>
       </c>
       <c r="C836" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10150,7 +10129,7 @@
         <v>26</v>
       </c>
       <c r="C837" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10161,7 +10140,7 @@
         <v>27</v>
       </c>
       <c r="C838" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10172,7 +10151,7 @@
         <v>28</v>
       </c>
       <c r="C839" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10183,7 +10162,7 @@
         <v>29</v>
       </c>
       <c r="C840" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10194,7 +10173,7 @@
         <v>30</v>
       </c>
       <c r="C841" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10205,7 +10184,7 @@
         <v>1</v>
       </c>
       <c r="C842" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10216,7 +10195,7 @@
         <v>2</v>
       </c>
       <c r="C843" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10227,7 +10206,7 @@
         <v>3</v>
       </c>
       <c r="C844" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10238,7 +10217,7 @@
         <v>4</v>
       </c>
       <c r="C845" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10249,7 +10228,7 @@
         <v>5</v>
       </c>
       <c r="C846" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10260,7 +10239,7 @@
         <v>6</v>
       </c>
       <c r="C847" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10271,7 +10250,7 @@
         <v>7</v>
       </c>
       <c r="C848" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10282,7 +10261,7 @@
         <v>8</v>
       </c>
       <c r="C849" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10293,7 +10272,7 @@
         <v>9</v>
       </c>
       <c r="C850" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10304,7 +10283,7 @@
         <v>10</v>
       </c>
       <c r="C851" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10315,7 +10294,7 @@
         <v>11</v>
       </c>
       <c r="C852" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10326,7 +10305,7 @@
         <v>12</v>
       </c>
       <c r="C853" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10337,7 +10316,7 @@
         <v>13</v>
       </c>
       <c r="C854" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10348,7 +10327,7 @@
         <v>14</v>
       </c>
       <c r="C855" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10359,7 +10338,7 @@
         <v>15</v>
       </c>
       <c r="C856" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10370,7 +10349,7 @@
         <v>16</v>
       </c>
       <c r="C857" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10381,7 +10360,7 @@
         <v>17</v>
       </c>
       <c r="C858" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10392,7 +10371,7 @@
         <v>18</v>
       </c>
       <c r="C859" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10403,7 +10382,7 @@
         <v>19</v>
       </c>
       <c r="C860" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10414,7 +10393,7 @@
         <v>20</v>
       </c>
       <c r="C861" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10425,7 +10404,7 @@
         <v>21</v>
       </c>
       <c r="C862" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10436,7 +10415,7 @@
         <v>22</v>
       </c>
       <c r="C863" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10447,7 +10426,7 @@
         <v>23</v>
       </c>
       <c r="C864" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10458,7 +10437,7 @@
         <v>24</v>
       </c>
       <c r="C865" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10469,7 +10448,7 @@
         <v>25</v>
       </c>
       <c r="C866" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10480,7 +10459,7 @@
         <v>26</v>
       </c>
       <c r="C867" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10491,7 +10470,7 @@
         <v>27</v>
       </c>
       <c r="C868" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10502,7 +10481,7 @@
         <v>28</v>
       </c>
       <c r="C869" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10513,7 +10492,7 @@
         <v>29</v>
       </c>
       <c r="C870" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10524,7 +10503,7 @@
         <v>30</v>
       </c>
       <c r="C871" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10535,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="C872" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10546,7 +10525,7 @@
         <v>2</v>
       </c>
       <c r="C873" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10557,7 +10536,7 @@
         <v>3</v>
       </c>
       <c r="C874" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10568,7 +10547,7 @@
         <v>4</v>
       </c>
       <c r="C875" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10579,7 +10558,7 @@
         <v>5</v>
       </c>
       <c r="C876" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10590,7 +10569,7 @@
         <v>6</v>
       </c>
       <c r="C877" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10601,7 +10580,7 @@
         <v>7</v>
       </c>
       <c r="C878" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10612,7 +10591,7 @@
         <v>8</v>
       </c>
       <c r="C879" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10623,7 +10602,7 @@
         <v>9</v>
       </c>
       <c r="C880" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10634,7 +10613,7 @@
         <v>10</v>
       </c>
       <c r="C881" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10645,7 +10624,7 @@
         <v>11</v>
       </c>
       <c r="C882" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10656,7 +10635,7 @@
         <v>12</v>
       </c>
       <c r="C883" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10667,7 +10646,7 @@
         <v>13</v>
       </c>
       <c r="C884" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10678,7 +10657,7 @@
         <v>14</v>
       </c>
       <c r="C885" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10689,7 +10668,7 @@
         <v>15</v>
       </c>
       <c r="C886" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10700,7 +10679,7 @@
         <v>16</v>
       </c>
       <c r="C887" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10711,7 +10690,7 @@
         <v>17</v>
       </c>
       <c r="C888" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10722,7 +10701,7 @@
         <v>18</v>
       </c>
       <c r="C889" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10733,7 +10712,7 @@
         <v>19</v>
       </c>
       <c r="C890" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10744,7 +10723,7 @@
         <v>20</v>
       </c>
       <c r="C891" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10755,7 +10734,7 @@
         <v>21</v>
       </c>
       <c r="C892" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10766,7 +10745,7 @@
         <v>22</v>
       </c>
       <c r="C893" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10777,7 +10756,7 @@
         <v>23</v>
       </c>
       <c r="C894" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10788,7 +10767,7 @@
         <v>24</v>
       </c>
       <c r="C895" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10799,7 +10778,7 @@
         <v>25</v>
       </c>
       <c r="C896" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10810,7 +10789,7 @@
         <v>26</v>
       </c>
       <c r="C897" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10821,7 +10800,7 @@
         <v>27</v>
       </c>
       <c r="C898" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10832,7 +10811,7 @@
         <v>28</v>
       </c>
       <c r="C899" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10843,7 +10822,7 @@
         <v>29</v>
       </c>
       <c r="C900" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10854,7 +10833,7 @@
         <v>30</v>
       </c>
       <c r="C901" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
